--- a/R/analysis/data/Pt_04_Experimental.xlsx
+++ b/R/analysis/data/Pt_04_Experimental.xlsx
@@ -524,7 +524,7 @@
         <v>1.1</v>
       </c>
       <c r="N2" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="O2" t="n">
         <v>0.35</v>
@@ -576,7 +576,7 @@
         <v>1.73</v>
       </c>
       <c r="L3" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="M3"/>
       <c r="N3" t="n">
@@ -631,16 +631,16 @@
         <v>1.09</v>
       </c>
       <c r="K4" t="n">
-        <v>4.6</v>
+        <v>1.06</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.75</v>
+        <v>3.25</v>
       </c>
       <c r="M4" t="n">
-        <v>3.54</v>
+        <v>0.71</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.5</v>
+        <v>2.5</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="O5" t="n">
         <v>0.46</v>
@@ -756,7 +756,7 @@
         <v>0.79</v>
       </c>
       <c r="L6" t="n">
-        <v>-2.43</v>
+        <v>2.43</v>
       </c>
       <c r="M6"/>
       <c r="N6" t="n">
@@ -811,16 +811,16 @@
         <v>0.3</v>
       </c>
       <c r="K7" t="n">
-        <v>2.78</v>
+        <v>0.66</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.47</v>
+        <v>1.97</v>
       </c>
       <c r="M7" t="n">
-        <v>2.83</v>
+        <v>1.41</v>
       </c>
       <c r="N7" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="O7" t="n">
         <v>0.18</v>
@@ -880,7 +880,7 @@
         <v>0.58</v>
       </c>
       <c r="N8" t="n">
-        <v>-2.67</v>
+        <v>2.67</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -932,7 +932,7 @@
         <v>0.76</v>
       </c>
       <c r="L9" t="n">
-        <v>-2.29</v>
+        <v>2.29</v>
       </c>
       <c r="M9"/>
       <c r="N9" t="n">
@@ -987,16 +987,16 @@
         <v>0.26</v>
       </c>
       <c r="K10" t="n">
-        <v>3.17</v>
+        <v>0.06</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.04</v>
+        <v>2.24</v>
       </c>
       <c r="M10" t="n">
-        <v>3.3</v>
+        <v>0.47</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.33</v>
+        <v>2.34</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1052,7 +1052,7 @@
       </c>
       <c r="M11"/>
       <c r="N11" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>1.47</v>
       </c>
       <c r="L12" t="n">
-        <v>-4.17</v>
+        <v>4.17</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -1163,16 +1163,16 @@
         <v>1.44</v>
       </c>
       <c r="K13" t="n">
-        <v>4.67</v>
+        <v>1.23</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.87</v>
+        <v>3.3</v>
       </c>
       <c r="M13" t="n">
-        <v>3.54</v>
+        <v>0.71</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.5</v>
+        <v>2.5</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1279,10 +1279,10 @@
         <v>0.98</v>
       </c>
       <c r="K15" t="n">
-        <v>2</v>
+        <v>0.52</v>
       </c>
       <c r="L15" t="n">
-        <v>-2</v>
+        <v>2.67</v>
       </c>
       <c r="M15" t="n">
         <v>0.71</v>
@@ -1337,10 +1337,10 @@
         <v>0.98</v>
       </c>
       <c r="K16" t="n">
-        <v>3.27</v>
+        <v>0.04</v>
       </c>
       <c r="L16" t="n">
-        <v>0.31</v>
+        <v>2.64</v>
       </c>
       <c r="M16"/>
       <c r="N16" t="n">
@@ -1400,7 +1400,7 @@
       </c>
       <c r="M17"/>
       <c r="N17" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="O17" t="n">
         <v>0.35</v>
@@ -1454,7 +1454,7 @@
         <v>0.55</v>
       </c>
       <c r="L18" t="n">
-        <v>-2.5</v>
+        <v>2.5</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -1511,16 +1511,16 @@
         <v>1.02</v>
       </c>
       <c r="K19" t="n">
-        <v>3.89</v>
+        <v>0.35</v>
       </c>
       <c r="L19" t="n">
-        <v>0.25</v>
+        <v>2.75</v>
       </c>
       <c r="M19" t="n">
-        <v>2.83</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O19" t="n">
         <v>0.08</v>
@@ -1630,7 +1630,7 @@
         <v>0.96</v>
       </c>
       <c r="L21" t="n">
-        <v>-2.75</v>
+        <v>2.75</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
@@ -1685,10 +1685,10 @@
         <v>0.66</v>
       </c>
       <c r="K22" t="n">
-        <v>3.44</v>
+        <v>0.45</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.31</v>
+        <v>2.44</v>
       </c>
       <c r="M22"/>
       <c r="N22" t="n">
@@ -1741,14 +1741,14 @@
         <v>0.66</v>
       </c>
       <c r="K23" t="n">
-        <v>2.29</v>
+        <v>0.98</v>
       </c>
       <c r="L23" t="n">
-        <v>1.71</v>
+        <v>2.57</v>
       </c>
       <c r="M23"/>
       <c r="N23" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -1802,7 +1802,7 @@
         <v>0.71</v>
       </c>
       <c r="L24" t="n">
-        <v>-3.5</v>
+        <v>3.5</v>
       </c>
       <c r="M24" t="n">
         <v>0.52</v>
@@ -1859,16 +1859,16 @@
         <v>0.66</v>
       </c>
       <c r="K25" t="n">
-        <v>3.68</v>
+        <v>0.66</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.9</v>
+        <v>3.04</v>
       </c>
       <c r="M25" t="n">
-        <v>3.3</v>
+        <v>0.94</v>
       </c>
       <c r="N25" t="n">
-        <v>-0.66</v>
+        <v>2.34</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -1924,7 +1924,7 @@
       </c>
       <c r="M26"/>
       <c r="N26" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -1978,7 +1978,7 @@
         <v>0.5</v>
       </c>
       <c r="L27" t="n">
-        <v>-2.25</v>
+        <v>2.25</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -2035,16 +2035,16 @@
         <v>0.6</v>
       </c>
       <c r="K28" t="n">
-        <v>3.01</v>
+        <v>0.18</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.12</v>
+        <v>2.12</v>
       </c>
       <c r="M28" t="n">
-        <v>2.12</v>
+        <v>0.71</v>
       </c>
       <c r="N28" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
